--- a/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 10 Permutations/10.18/Forward simulation/trial_10.18_output.xlsx
+++ b/data/Fall2024/Network Motif Comparison - 3 gene, 4 node networks/Trial 10 Permutations/10.18/Forward simulation/trial_10.18_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1530" yWindow="1215" windowWidth="18345" windowHeight="11745" tabRatio="877" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="1530" yWindow="1215" windowWidth="18345" windowHeight="11745" tabRatio="877" firstSheet="8" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="5" r:id="rId1"/>
@@ -2215,7 +2215,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2259,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4">
         <v>0</v>
